--- a/Modelo Carros.xlsx
+++ b/Modelo Carros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43036207856\Documents\DBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA8EBC-1A70-40C9-8E5E-45E77C792B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F2255-7AC3-4B46-BF43-FE270453D6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{062BC01F-62A9-4BA1-819D-4823725E2014}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,45 +210,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +551,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,146 +564,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="10"/>
@@ -719,70 +712,70 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>3333</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>1111</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>2222</v>
       </c>
     </row>
@@ -794,5 +787,6 @@
     <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>